--- a/PySedLog/datos.xlsx
+++ b/PySedLog/datos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Espesor</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Sr</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arenisca fina con intraclastos </t>
   </si>
   <si>
@@ -54,13 +51,37 @@
     <t>G</t>
   </si>
   <si>
-    <t>Gr</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Grava</t>
+  </si>
+  <si>
+    <t>Formación</t>
+  </si>
+  <si>
+    <t>Litología 2</t>
+  </si>
+  <si>
+    <t>Granulometría</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>vf</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>St</t>
+  </si>
+  <si>
+    <t>Gp</t>
   </si>
 </sst>
 </file>
@@ -392,20 +413,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -413,19 +438,25 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:9">
       <c r="B2">
         <v>30</v>
       </c>
@@ -433,16 +464,19 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="1:9">
       <c r="B3">
         <v>25</v>
       </c>
@@ -450,27 +484,47 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:9">
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
